--- a/2025-10-17/17_fixtures.xlsx
+++ b/2025-10-17/17_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,15 +566,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pafos FC ✓ - Ethnikos Achnas: 4:0</t>
+          <t>Paris Saint-Germain  - RC Strasbourg Alsace: 3:3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -585,13 +585,8 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -605,15 +600,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alianza FC  - CD Hércules: 23:00</t>
+          <t>Pafos FC ✓ - Ethnikos Achnas: 4:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alianza FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -621,11 +616,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -639,32 +639,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Turan-Tovuz IK - Qarabağ FK ✓: 1:2</t>
+          <t>Alianza FC  - CD Hércules: 23:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Alianza FC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>✓</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -678,19 +673,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NK Triglav Kranj ✓ - NK Jesenice: 6:0</t>
+          <t>Turan-Tovuz IK - Qarabağ FK ✓: 1:2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.76</v>
+        <v>1.94</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Triglav Kranj</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -703,7 +698,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -717,19 +712,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SKN St. Pölten ✓ - SC Austria Lustenau: 1:0</t>
+          <t>NK Triglav Kranj ✓ - NK Jesenice: 6:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.98</v>
+        <v>3.76</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SKN St. Pölten</t>
+          <t>NK Triglav Kranj</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -742,10 +737,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -756,27 +751,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje  - NK Dekani: 1:1</t>
+          <t>SKN St. Pölten ✓ - SC Austria Lustenau: 1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.02</v>
+        <v>1.98</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Brinje Grosuplje</t>
+          <t>SKN St. Pölten</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>71%</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -790,30 +790,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21  - PSV Eindhoven U21: 2:2</t>
+          <t>NK Brinje Grosuplje  - NK Dekani: 1:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.13</v>
+        <v>3.02</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ajax Amsterdam U21</t>
+          <t>NK Brinje Grosuplje</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -824,32 +824,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kaspiy Aktau ✓ - Shakhter Karaganda: 3:2</t>
+          <t>Ajax Amsterdam U21  - PSV Eindhoven U21: 2:2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.01</v>
+        <v>2.13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kaspiy Aktau</t>
+          <t>Ajax Amsterdam U21</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>70%</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -863,27 +858,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>APIA Leichhardt FC  - Sydney United 58 FC: 08:30</t>
+          <t>Kaspiy Aktau ✓ - Shakhter Karaganda: 3:2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.02</v>
+        <v>3.01</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>APIA Leichhardt FC</t>
+          <t>Kaspiy Aktau</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -897,27 +897,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CD Olimpia  - CD Motagua Tegucigalpa: 2:2</t>
+          <t>APIA Leichhardt FC  - Sydney United 58 FC: 08:30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CD Olimpia</t>
+          <t>APIA Leichhardt FC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -931,27 +931,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bahla Club  - Dhofar Club: 14:00</t>
+          <t>CD Olimpia  - CD Motagua Tegucigalpa: 2:2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.82</v>
+        <v>1.62</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bahla Club</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -965,27 +965,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NK Sesvete  - NK Hrvace: 2:2</t>
+          <t>Bahla Club  - Dhofar Club: 14:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.78</v>
+        <v>0.82</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NK Sesvete</t>
+          <t>Bahla Club</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -999,15 +999,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Beerschot VA  - SK Beveren: 1:1</t>
+          <t>NK Sesvete  - NK Hrvace: 2:2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>NK Sesvete</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Altay Oskemen - Irtysh Pavlodar : 1:1</t>
+          <t>Beerschot VA  - SK Beveren: 1:1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Irtysh Pavlodar</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1067,30 +1067,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Red Star Belgrade  - FK IMT Belgrad: 23:00</t>
+          <t>Altay Oskemen - Irtysh Pavlodar : 1:1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.18</v>
+        <v>1.42</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Irtysh Pavlodar</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1101,15 +1101,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al-Ahli SFC  - Al-Shabab FC: 1:1</t>
+          <t>Red Star Belgrade  - FK IMT Belgrad: 23:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al-Ahli SFC</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1135,27 +1135,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Independiente Medellín  - Fortaleza CEIF: 00:00</t>
+          <t>Al-Ahli SFC  - Al-Shabab FC: 1:1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.93</v>
+        <v>3.34</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Al-Ahli SFC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1169,35 +1169,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Al-Ahed ✓ - Al-Mabarra Club: 2:0</t>
+          <t>Independiente Medellín  - Fortaleza CEIF: 00:00</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Ahed</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>58%</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1208,19 +1203,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng ✓ - Meizhou Hakka: 3:1</t>
+          <t>Al-Ahed ✓ - Al-Mabarra Club: 2:0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Al-Ahed</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1233,7 +1228,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1247,7 +1242,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu - Shanghai Port ✓: 3:4</t>
+          <t>Chengdu Rongcheng ✓ - Meizhou Hakka: 3:1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1255,7 +1250,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1263,7 +1258,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1272,7 +1267,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1286,19 +1281,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FC Ozgon - Bars Karakol ✓: 0:1</t>
+          <t>Qingdao Hainiu - Shanghai Port ✓: 3:4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.01</v>
+        <v>2.01</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bars Karakol</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1311,10 +1306,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1325,15 +1320,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima  - FC Tokyo: 0:0</t>
+          <t>FC Ozgon - Bars Karakol ✓: 0:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sanfrecce Hiroshima</t>
+          <t>Bars Karakol</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1344,8 +1339,13 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1359,19 +1359,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MFK Dukla Banska Bystrica ✓ - FC Petrzalka: 1:0</t>
+          <t>Llandudno FC ✓ - Flint Mountain: 3:0</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.6</v>
+        <v>3.24</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MFK Dukla Banska Bystrica</t>
+          <t>Llandudno FC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1384,31 +1384,104 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="K27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima  - FC Tokyo: 0:0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fri Oct 17</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MFK Dukla Banska Bystrica ✓ - FC Petrzalka: 1:0</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MFK Dukla Banska Bystrica</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="K29">
         <f>COUNTIF(I:I,TRUE)</f>
         <v/>
       </c>
-      <c r="L27">
-        <f>(K27/K29)*100</f>
+      <c r="L29">
+        <f>(K29/K31)*100</f>
         <v/>
       </c>
     </row>
-    <row r="28">
-      <c r="K28">
+    <row r="30">
+      <c r="K30">
         <f>COUNTIF(I:I,FALSE)</f>
         <v/>
       </c>
     </row>
-    <row r="29">
-      <c r="K29">
-        <f>K27+K28</f>
+    <row r="31">
+      <c r="K31">
+        <f>K29+K30</f>
         <v/>
       </c>
     </row>

--- a/2025-10-17/17_fixtures.xlsx
+++ b/2025-10-17/17_fixtures.xlsx
@@ -965,7 +965,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bahla Club  - Dhofar Club: 14:00</t>
+          <t>Bahla Club X - Dhofar Club: 1:3</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -984,8 +984,13 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
